--- a/app/static/suporte/model.xlsx
+++ b/app/static/suporte/model.xlsx
@@ -168,7 +168,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -192,22 +192,22 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M40" activeCellId="0" sqref="M40"/>
+      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="36.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="12.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="20.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="33.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1008,7 +1008,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="70" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/app/static/suporte/model.xlsx
+++ b/app/static/suporte/model.xlsx
@@ -168,7 +168,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -192,21 +192,21 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
+      <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="33.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="33.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19"/>
   </cols>
   <sheetData>
@@ -1007,8 +1007,8 @@
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="70" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.363888888888889" right="0.0326388888888889" top="0.469444444444444" bottom="0.04375" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="75" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/app/static/suporte/model.xlsx
+++ b/app/static/suporte/model.xlsx
@@ -25,7 +25,7 @@
     <t xml:space="preserve">O.S.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tomador</t>
+    <t xml:space="preserve">Defeito</t>
   </si>
   <si>
     <t xml:space="preserve">Tipo</t>
@@ -192,19 +192,19 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="33.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19"/>
@@ -1007,7 +1007,7 @@
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.363888888888889" right="0.0326388888888889" top="0.469444444444444" bottom="0.04375" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.182638888888889" right="0.0326388888888889" top="0.542361111111111" bottom="0.04375" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="75" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
